--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/80_Yozgat_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/80_Yozgat_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEE2C2CB-7397-456C-8DE4-4CF8548EDF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{168AEA24-56C4-4145-BAE8-67B0F6F42904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{B603461C-5C43-404A-81C2-93F75AB3B586}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{48CE559D-13DB-4F66-873D-0E441518B473}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -982,13 +982,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{62468F37-52F7-46F9-ACDF-0ABE6A1AF0CF}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{15222FE7-51E1-4CAD-B96B-431DCC02AD06}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{F95427CE-C811-484D-A7E7-B0D92B37D52C}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{00CB6FE8-11C5-471A-AF0D-36C78C59BB31}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{E04A5D13-4167-4C03-B05A-EC15148E3DFB}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{C370BD37-77DB-46CA-BCDF-03ACB1B9306F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{1D670A7E-7AEF-4E08-A25F-73094EF33997}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{9EB9EE5A-1DC5-4146-8DC2-63EA18BA788D}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{4042E9EA-737F-4B62-A10E-CFF836B8DA9C}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{E8503285-D00D-42F2-B9FD-5F0C5BA3F42D}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{72EFA736-3E36-40E4-8534-729AAE95F9F4}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{EA737A2E-837C-43FA-9F9A-BABD5DE2AB43}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{ECE57484-D7A4-480E-8F4C-798C23AB8830}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{C09E9A72-FF17-4331-8336-26BBAF6F9AF3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1358,7 +1358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1956D5DF-70A4-4AE9-90E7-EF9DFEB8282E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3692AAA-8EA4-48B3-8D2D-D4A7A744B960}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2596,18 +2596,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C625A95D-1878-4F88-A707-18BBD61A5897}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{75E54DC7-DFB0-4474-862D-B8345B24A299}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DBBD6924-DD5D-4E3A-ABA5-BBF1D8B2EF4B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{79C5C5CA-5786-4CC3-80DC-3C0EE6133316}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{31870914-E25E-4F7D-A51B-D71B8918A00F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6A48F77D-49E6-4558-9ACC-AA56D1D98D9E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{00114E65-651F-449F-9E70-CDE29F729F40}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C6DFD8B7-9A6A-4556-98AB-A486D03513C7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5B57143D-344E-4F9B-AE23-D9B79155BDC3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AB6B174B-FB97-42D9-A667-D05452EB4A24}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A3CAC4D5-0F52-4E49-A536-341A55E0DCDE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{27DF462B-AA3F-41CD-8A7B-5AAAFB7F087E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5454351C-FD78-4B82-88E3-CEC9FADB4BAE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{33B9FC05-C768-4203-81CE-35199C7883D6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{98387CB4-7ADF-453E-A731-4CB24A224B27}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{04230926-0C11-49CA-92C2-D03F62009C19}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{18C6038F-B429-469E-9AB6-232BAE1707D8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{55663837-7A11-428C-A4A3-450D36DF3DF7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{51F48ACA-FB5D-4EE0-861F-9F081A648A1E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2A82D5B0-576A-448B-B976-AF7C4AD3863B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{713AA1C5-B481-4FBC-8840-952C91EE7E9F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{291BB207-68ED-4905-99E5-1270293A31FB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CB0A4BB8-6358-40A6-8B83-A28B4C486550}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DA7D5596-44B7-48CA-898E-C0A1754BF399}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2620,7 +2620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E73C4B-1857-40B2-A652-7692538CD82F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B45C96A-3B32-49E6-9500-3777D955FBCF}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3843,18 +3843,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2C0B868B-9797-4721-A63C-7E7B1EF81656}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A39CBE2C-ED34-4074-A733-BD294F74836B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0EF705CA-76D4-4340-A4AA-91DFECE1C4B2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FA80B73E-8D9A-45F7-9D94-C734C0E96240}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{1196861F-601E-4B86-9FD4-5D16024D3DBD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9684D425-8B5D-4CDB-9453-CEA0441DF5A6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F0970792-F63F-4E76-8806-99B1F5E7838F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D8769D42-91DC-4A9D-B8F2-6DCC4E711BFD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B67FD985-093C-4374-BD8D-D984E5B7364C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{44224D68-69D9-41F2-A88D-690B747E5FAC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{09B54D95-2786-4AF7-A8AC-302C40BD150E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{59396896-D002-40FE-9635-121FB67D285D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E6D04E91-EFFD-4E8E-8C31-418D4A8978BB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A959FE5C-64FA-4027-8ABA-DC9C308ADE97}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{25378CA6-6E44-49B7-8F68-3EF642AE35A2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D4C96A88-0BE5-4B11-83CF-16611E3E535A}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{185BB8AB-0938-4CD2-A4EF-9FC97026F5CE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E1302AD2-F6D1-441F-9A45-158587A0D173}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{61B86441-5DAF-402D-AD8D-3991F496DC11}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1A455F4B-EF5E-425A-81F5-4CD98A844A0A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8E78D776-5D72-42A2-BC75-E2FF6DD5CEE5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E111431E-E69A-4291-AFA1-EF1BD51BC779}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F2103970-978C-45C4-8C22-19F6C281C680}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{803AA755-EBBD-404F-BB9A-7EB28C4EB149}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3867,7 +3867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DD4038-6AB2-4D42-B81C-18906EAE8BC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44295748-8107-41CB-93D2-7BCBA28AD32B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5090,18 +5090,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C90CCB3-5B1E-4AE8-BDC8-21A334613703}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DBC12E9C-C330-4890-B192-FF181CF2FF09}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0C6D1F04-9747-4975-9FDC-9786B94F67A5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{62AD92D9-627D-4FD6-8DAC-6AD4A4B1DE3B}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{B21E23B8-0D08-45CA-B189-00F159F23E63}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EE02C318-D5D2-4289-A0DE-0A2F52B0A517}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4A65DBF4-8F35-4456-A84C-813D3A7CF17B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C635723F-C435-4EAD-926A-79458FD0B512}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DE17E905-BBF1-4633-AB95-71DE70221E0F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6EBA847D-3A27-4288-93E9-44D01124341C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2A1DDE72-96E7-4558-BF82-99BE23B3BB4B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8C985A2C-4335-4D85-BA1E-F90923D011D7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6D9EAF70-BBB5-4A7C-8330-701C2FCA21FB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DA385205-AA74-4932-A98F-BE33FB9A1816}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{10343E45-168E-472A-8873-BD470F48923C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B6C0622A-5175-47C4-AA66-0FE011C044C7}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{51BD8C47-B224-4E62-B33F-509B6D696C20}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C82E8F25-6354-488B-B424-D3466ADAD0B8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5A31E0F1-51F3-4886-A1EC-72466DA5C45D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E022F635-D452-47CD-A836-AE8555C45101}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A52F444A-0C7D-4242-9795-E90D49A73A86}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DA552C84-4B3F-4543-AA68-2CF382FC9013}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4E1BA372-60CE-44F4-AEC9-2752B402C242}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DDCF7EB8-367B-485B-B7E2-3B759EF9D80C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5114,7 +5114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCA5059-5354-419D-AF08-5C4EC73BAAC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCEB9D46-B1E1-4301-B364-8D6318D46DB7}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6319,18 +6319,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2FBCBEE8-597D-4045-81B5-90B30997FDA5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1A16D540-F049-4803-A5C6-91D74E78435E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{05C75618-AFF3-4F24-A2F9-4D938EC41D59}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E32BA1CC-B60A-488B-8AD9-825BC841B448}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{FD91382E-E065-44B6-8846-A1515430863A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A4A7F657-CBE8-43DC-85D5-B102DE231997}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{93F19B3B-21BB-4FF3-ADE3-75BF8E72EE43}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{559BE070-E0A4-4C66-AFE7-BB9440A04E2A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FBAB0361-0B5A-4764-8692-A809A6B28835}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{599B6329-FB93-40BA-A282-20F201B9B9DC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A6E8DEB2-0D68-4DE5-A592-7EC7B5C4EE5C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B31ADABE-77A4-4F52-AA0C-897CE669DC06}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{77CB9868-D672-4B1C-8921-4C13C46227DA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{385D713D-037E-434E-96C6-0DB8B25947FB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{751883B6-C5C7-4808-9667-5205B3344E74}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BFDCD678-6B40-4348-9B9E-420A6E48951D}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{527FFF2F-44B5-4FC0-BFBB-E7AA9EDB5FF2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A5059AB8-F341-40DA-ACFF-967808AE7839}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7A4789E2-785C-4575-98FC-27DB567A124A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BCD5AED0-01BB-42D4-8016-ED82C51391B9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1D6F0EB5-1F00-42ED-B31D-4A9F6EB3963C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{24AB0D97-09CC-40EC-9A51-2BF59B86A461}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{22EF5E23-C955-40B6-B7A3-496CACAD7F9A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{440E287B-D933-40F6-8196-BE45111C6834}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6343,7 +6343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B8EE93-48F4-46F3-8A47-4ED6514DE3FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56FEA8B4-EB2B-446C-95BA-B8FF0F3AF2E9}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7578,18 +7578,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{31B08A20-9432-4859-B195-38AA5D24C39E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8C727052-1C33-4E18-B17B-07460BA6D1E9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4575E084-0273-4DB7-8E0E-939CAAEC814E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{302A7CA9-7223-4376-B3A4-55339E6A4581}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C321C27C-434F-4167-AEF8-3B2F28F2DB7C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CBF61A24-ADF4-40B7-8002-F9E272C917A4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{38F83768-0546-4834-AEBC-BFD8EF325C6C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D42CB14D-A33D-49EB-9495-6D4CD3343FEA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8C5DB280-59EA-4961-82E0-C6EBD863A32F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{46253D95-B6F8-4CEA-A18B-9405420844C9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2AE4FBC9-EE89-4516-812A-3F7461ECB078}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9532764B-EE0D-45FF-8875-29C0AB02B2E7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A940A9A5-A8CE-4C73-8071-AF0FF9ECCAD4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BEB41FEF-6EC3-43BA-B5FF-371F60310D1D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4EAF2DC0-7385-4F5E-93C9-6B5BDE331B78}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{63A8C2EF-632E-475A-A140-B38813C62A68}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{0960353F-3BF9-4C08-9BFF-66758BF368CD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{250C9ACE-94D7-4A4C-B286-85E6E65F4474}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2883205A-7BCD-4B46-B39A-C75742ACD0F5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B8097C84-BF41-4E02-93C3-62379391F02E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{08A87FA7-823A-4808-8172-11111D062B14}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4813E33B-FE19-432A-BC3B-630CEA761E8B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C008E8A2-4527-4942-85CF-8BF55A92FC0A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6EF76B0E-D73A-41FF-A76E-235351CB7239}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7602,7 +7602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B423696-40E4-44FC-91F4-313AF5EEF5DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BCF75F-1859-4DD0-AA1D-1522C1DDEE4F}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8837,18 +8837,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5BFC8C39-0222-4828-AD9E-C236ACCB0F58}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3806198E-59D3-40A1-9AF2-005ED254B336}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{58DCDED2-A236-4981-8174-2007877A6FC7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D895C5B2-DAF9-4EE2-A92A-2AE184F7B403}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{0C22485E-9213-4516-B26A-B162A6EFCDC7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8D9980A8-6B16-4F38-839B-03CFA5869B7F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BC30A670-C675-4675-A977-BE6E9EA25E63}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8D7317C6-A679-4FDD-B9EB-495C4C1A6FB8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3C5D5413-0F79-4A69-8ACB-5B4E43B6B72D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{10DBA306-3DB2-4CDD-9C53-C5F8EEEB6538}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{036523E4-EDF1-49F8-A0B4-1B6521657396}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BB49620C-B139-4614-AB3A-24C13A6D903B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E0D33D91-536A-48F5-AA8F-1560FA1D1607}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0442A8E2-3CB2-4903-81CC-1ED0979EC4F8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5D46E4B3-3FE2-4E74-BBE3-0EA2D09F98FC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2B4AC64A-7B1B-4AA0-BF60-0E9F27B2BD1B}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{2FFCEE44-D5F6-4A7D-8C01-850AE17607C4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{32622757-D014-4DE1-8F6B-F58CCED8A44F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B091A8C9-2BA4-409A-AD1C-03241F963B3D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6952E799-8997-4F99-B8F3-4ABD50542F7D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B35B9FF0-F7BE-454A-8B46-7382462D3729}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B55974B6-D392-4891-82F2-416884D458D8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1BA6FF4C-0EEB-4ECA-AEAE-F2909F4DD348}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8A28D909-82BD-42DB-A9D5-82B62B1BC4B6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8861,7 +8861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA0E461-8D90-4AB1-AED6-5D57DE22E16B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209028C5-D833-4714-858A-36BD68C706A6}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10096,18 +10096,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FDE2BA32-48D6-40BC-B986-B6F4FD3FDCA2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6E6F1EAC-3113-438E-9DD5-0C807DC8EE6D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9B2B149F-89E4-4F0E-BD01-9F93B5A22ED3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{925B69D2-454C-4638-A930-01A917BC9FFC}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{0670BE15-D117-44BA-978A-B5822441EBD2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A0752D31-DE2B-45D7-8A6F-068192EB5A8C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{297E3A7C-D3F2-4551-937C-7BDEE759DA79}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4C47DD35-5BA4-4F6D-85DF-E5FA900C0FDB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F7529E34-23E4-4C24-9C9F-379B2E655DF2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4B23C008-A774-4EA8-ADEC-80A1F9D8A798}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0C9E502C-A9B3-4CD7-A68E-339F9BDE4370}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4172157E-EA50-46CB-927D-1EF5025A27D4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7D57C1F6-A717-41D5-91DA-62C62BA167DC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9D28DF66-0802-4FB2-9C17-7AF23FE1B33F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2EAB391D-7303-4BAE-B92B-49299F33037C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B07F6C66-2B10-4CEE-980E-6B422935868E}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{ACD7A8A0-9860-4080-AE44-7A6BBE7C39BB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6CDBE1E3-5B06-4689-89B7-35FE837E135F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{904C21EE-4635-4A21-B0DC-DE8352BBF63E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A096E747-6926-4D0D-90D1-6D51958DE17F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FA58B940-8F6E-41D4-8060-A6499351AF16}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3099874D-5992-44DE-870A-F4A519B4B6F8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1548CA1F-86A6-403D-B50C-0C790CE7AC92}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F569434C-5847-49C0-A34C-A3274E4120E8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10120,7 +10120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F5D63F-6BD2-4B57-A67E-F18223D53F16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3B4190-EF2A-4DBA-B66B-7E774E987B9A}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11355,18 +11355,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CF2C41EC-BDD7-4635-A027-99EFF0982A23}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4FBB6A09-15E2-4A10-9101-7F1442BB35D0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{935AA449-9835-4FFE-AED0-013643F3FB74}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7B914A5F-6BEB-4823-BB6E-4B5E2A5BCD07}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{EB113D5A-7972-4B14-B2E2-090F137912D9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D0135812-0B06-4A88-B29E-C436CBFA396B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{40F59710-425D-4E4C-A9E9-C8F2C8FBB5B4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8E88D49A-8721-4419-ADC2-5D4AE9223BBB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5E492381-F881-427C-BB4A-17E3F13BD81A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7479AAAB-85DD-4874-8F9B-95040F6F90B2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{176CA675-D696-4944-9AD1-D2314AD079C3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EF5A0B14-B0E0-435B-A0CC-FC8B86C1C517}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{38D41C26-2F50-4D7A-A299-C01DD7E1C41D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D315B9BE-753A-4294-A439-0D291B66DD35}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A37FBC26-5642-42BD-927C-AE305FCB87DD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{96AE88B6-3E92-463C-91C4-6C42A2DAA2E7}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E29A8FFF-02FC-4600-9E7C-38FD2CF4D667}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{95B9B17A-5B51-4CA3-8627-42B7E88D2946}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E26383FD-0049-4104-B422-C6488D946336}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3526A631-0774-4B85-AA6A-593B52907A76}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E821B58A-FCF3-4AE5-AA4E-5F84A42B9208}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9DB50981-82FB-4B07-93FB-2F1F8523C5D0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{64A16DC0-F7F7-44F7-B5DE-D50BEAE636B9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3BF3E022-CF82-4E31-B676-3D58A8F5272A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11379,7 +11379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77AE369B-8318-4648-8E74-1408EA3997D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5521B959-459A-45AE-BD10-CE0E4D7DF9F2}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12614,18 +12614,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{875E176E-BD9A-4949-A2AB-2FE6933CF628}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3E30AF31-87EE-4244-A999-25BCC9E428F6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D5D24DC0-C8F8-43C8-8901-325347FE2F7F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{20325CAA-A039-4999-B837-3805D9F3826C}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{B01EF5D5-D5E1-435E-BCD5-6D9092DF5830}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C55D2DC0-D755-43D0-918D-B996442CA1B2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7F9E2813-95DA-4479-9499-625E42DE2C63}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{52016E01-2A65-4405-96D3-5A09DBB44FD1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0C1FC0CF-E4C1-4115-B551-59B4174970EE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6F5ADF70-954C-4B81-8B0F-336BF6554644}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2948C822-42B0-42B5-9A0C-D95B32F62379}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C75E3E0B-A174-4F1B-941C-AE99FC6A4D45}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{632E5567-ECB0-4072-A96C-474F918ED033}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5F21C42A-3ED2-4B54-A24B-0ED352364080}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8E07145D-3CD1-4F0A-B1B9-1DDE9A0F5488}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{207256BE-402E-42F0-A9AD-A5B712E51470}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{0DAF406B-E13B-4C23-B756-B26257FAB554}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FE16905E-60D9-41FC-AF26-625144DBFC9B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{73820A0B-F9E4-4A60-BF82-948840BF9DB7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{555B2C18-2356-4196-91AD-FC7390DEC63F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{22FB668A-CBE2-4421-A9FB-0708AA8CE596}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D539BA9E-B971-4750-900F-02AA12AAD7FC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A4C9EECE-0A81-48CC-9724-EAFA0048CBD1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E233826D-F7F1-48FB-8C38-94FE3FEB22A8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12638,7 +12638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA15D97-DCFC-48D8-9CD5-79B8F9ECE560}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E4DF80-C5D4-43F2-B45B-20EA766AE481}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13873,18 +13873,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{396C15EA-2225-4B80-83E5-ACD1C174843F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DB443BFE-0828-4792-865F-8E6962187A5D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{ADFD06BF-ACB1-4A45-BDF6-F6B129D6E14E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{014E365F-B8EA-433F-850A-A98AC2AF6CC9}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{97298BDF-3871-4FFC-8191-341385704DCB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{80BB3B0A-E538-470E-8319-97EF264D7388}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{78601A37-CE2A-4E58-BE6B-F70D8733327F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B0DD281A-AB84-4212-A4B5-A1A6F51C4D79}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BCB44B44-13C6-4CD6-9276-3CC4DCD78C60}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6A132F45-467D-4808-904D-56661D6A3386}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C86EE19B-43AE-4BB1-B956-F3AF783821A0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DFEA5897-CDD1-439E-92D7-2240BAA35C1C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{49BB01E5-BB55-43E9-BF00-CAAC24B46BFE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{199A2A7A-9ABD-4DC0-937B-AF5234F9EBA0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F5E62A08-ACEF-451B-B1DB-08FBADF34E18}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2D39113C-1F94-4A06-B35A-9B22778DAF8B}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{271FE698-6E27-4222-A17A-3C56AA419394}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{49E36F5F-8054-48BF-B264-3B3EE326E516}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A727FC14-2DFF-4F07-85F0-2B40E87DD8BE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{13FA2173-47A7-448A-B873-2DD76191D8E2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{188367C7-651A-4926-A7B9-396B5EC69DDF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E0712B27-F3F3-49C8-B735-2DAD0153BBEB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C2AA4999-A414-47CF-82BA-45840F4D4BB4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FCB0EECA-2A4E-4454-9208-92A2B26E10ED}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13897,7 +13897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A65E822-1D3E-4B77-9D3D-760DB5053F6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D22E29E-3B3A-4189-BBCE-D8C9EED2978C}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15132,18 +15132,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2CA74C1C-38ED-4C4A-B01C-27F0102E00D0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9338AB4C-EEB3-4FD5-B5D3-67E566E25CBE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EEEEE2AD-F51C-4E6D-B9F6-645ECD0DEA7C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DB568B54-E28C-4888-AC31-B738D37566A3}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A16A2115-1067-4861-976C-1D709B757CB7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5EC9FD84-CEA4-4E29-8EFA-1ECDE64020BD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6939FBDA-CC66-44F9-8693-6067497066AC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3F3C0D07-A590-4DD7-B69F-A057A5D8FEA9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9D406FC7-E2FF-46FB-8396-F1D703A521E1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9C4CD188-9986-4E05-A53A-2A33CC32E728}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3DB13F7F-912B-49B9-BCAA-FD641FF2FB39}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0B8EC3C4-057D-4096-8BE2-8E85CF73A6E0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3FC60877-EAAA-4CC9-ACAB-FDD9FDE577B1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3AEED0E4-701F-4EE4-836A-F32526B80F4C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{48F75F24-8921-4068-8F72-1B5B2DF9EDE1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8B867046-7D75-4BAA-A270-75DAB4E933FD}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{04C90421-7CC1-4E12-89C6-F3FAC74DF25C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3723E8A0-9719-4D2C-9C09-7ED2A64D03C5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EC8006D8-690B-4DFD-8035-2F17AEAAF52C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4B5C172E-416F-45C2-A42E-8C9479910E66}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4C03DFC3-D320-4E44-BC06-25AD6650E88D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{460C0FEF-3EE4-4A9D-9F5A-B8F9C9BE8F6E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BCB6AB97-D622-463D-B71D-E477E67AAFB7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DD013D15-47C2-46C8-B3B4-F888640E064B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15156,7 +15156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291EE03D-5185-4D7C-8DE7-33001F5362F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6D3270-BAEE-4A7B-9B1A-18C193D90DA4}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16391,18 +16391,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BDC4EB4E-DDB5-4211-AC0F-5629C4C6A5E5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0BDAF389-7AF5-4A21-B119-0DB3CB3E2C5F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2C5643A4-7B46-4139-9C3E-D1ECF4CC6BF6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{362D1EDE-10CF-46A5-861E-FBDC40C4814D}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{0C5FFFF3-D50F-4C6A-8FD4-F2DA22686FE0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{355921B8-8632-4343-9ECB-99C8A5F1B2B8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CA1C78E5-B2B9-4B37-A821-7F8520A0E810}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FC4E867B-961D-4E6A-A354-78E2BD9B4827}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{91220470-22AB-40A2-9638-255143414979}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{385FB721-C30C-4418-8393-CC9629E87941}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9B4F11D6-EE8B-42A6-92C8-12EEC0A6A186}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{66755828-2874-46C5-A2DC-A3D34F690411}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4D7B97C0-80EA-47E5-9D10-3BC966C0251F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{40511CC3-977C-4D2D-AF0D-C9E1CB109B1B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C904958A-B6CC-412A-9A4A-03DFA4C34AC8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CB0F8B97-E119-4BB4-9ECE-ADCB26150F86}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{7193389F-C162-4CB2-B0DA-8D0C6717C434}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{177F689C-AA22-442F-88DC-DEC5B57D2BB4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3482ED04-139B-4703-9E02-5984F811EE51}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1E3C151C-5105-42B5-A7BE-C9A0B57A4D1F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3CEC8AE4-1397-4165-BBDB-68B633E2D9E1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D22A8E73-C3B6-4973-B703-661B7BDC5159}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C8C707C7-915B-4B24-9F2D-9E51506D3237}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9873041A-B1C0-45C2-8FE4-E964CB728CA0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
